--- a/Scheduler_cal.xlsx
+++ b/Scheduler_cal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\buidu_8h8ybgq\OneDrive\Documents\GitHub\PRJ301_BL5_Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3DFE48E-FA2D-4423-9B41-4B9AAF306D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08D772C-B587-4505-9F29-2ED62D49B935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{16EA6DC9-32AF-492B-B3F1-7B9F76CE6A5F}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="25065" windowHeight="14550" activeTab="1" xr2:uid="{16EA6DC9-32AF-492B-B3F1-7B9F76CE6A5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -684,12 +684,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -703,46 +700,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -763,6 +733,45 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -781,23 +790,8 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1127,1633 +1121,1637 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35" style="35" customWidth="1"/>
-    <col min="2" max="2" width="37.5" style="35" customWidth="1"/>
-    <col min="3" max="37" width="13" style="5" customWidth="1"/>
-    <col min="38" max="16384" width="8.875" style="5"/>
+    <col min="1" max="1" width="35" style="17" customWidth="1"/>
+    <col min="2" max="2" width="37.5" style="17" customWidth="1"/>
+    <col min="3" max="37" width="13" style="4" customWidth="1"/>
+    <col min="38" max="16384" width="8.875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2">
+      <c r="B1" s="25"/>
+      <c r="C1" s="27">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="3">
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="28">
         <v>2</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3">
-        <v>3</v>
-      </c>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="4">
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28">
+        <v>3</v>
+      </c>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="3">
         <v>4</v>
       </c>
-      <c r="AK1" s="4">
+      <c r="AK1" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="3" t="s">
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3" t="s">
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="4" t="s">
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="28"/>
+      <c r="AJ2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AK2" s="4" t="s">
+      <c r="AK2" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:37" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="6">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="6">
-        <v>3</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
         <v>4</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="1">
         <v>5</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="1">
         <v>6</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="1">
         <v>7</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="1">
         <v>8</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="1">
         <v>9</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="1">
         <v>10</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="1">
         <v>11</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="2">
         <v>1</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="2">
         <v>2</v>
       </c>
-      <c r="P3" s="7">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="7">
+      <c r="P3" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="2">
         <v>4</v>
       </c>
-      <c r="R3" s="7">
+      <c r="R3" s="2">
         <v>5</v>
       </c>
-      <c r="S3" s="7">
+      <c r="S3" s="2">
         <v>6</v>
       </c>
-      <c r="T3" s="7">
+      <c r="T3" s="2">
         <v>7</v>
       </c>
-      <c r="U3" s="7">
+      <c r="U3" s="2">
         <v>8</v>
       </c>
-      <c r="V3" s="7">
+      <c r="V3" s="2">
         <v>9</v>
       </c>
-      <c r="W3" s="7">
+      <c r="W3" s="2">
         <v>10</v>
       </c>
-      <c r="X3" s="7">
+      <c r="X3" s="2">
         <v>11</v>
       </c>
-      <c r="Y3" s="7">
+      <c r="Y3" s="2">
         <v>1</v>
       </c>
-      <c r="Z3" s="7">
+      <c r="Z3" s="2">
         <v>2</v>
       </c>
-      <c r="AA3" s="7">
-        <v>3</v>
-      </c>
-      <c r="AB3" s="7">
+      <c r="AA3" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB3" s="2">
         <v>4</v>
       </c>
-      <c r="AC3" s="7">
+      <c r="AC3" s="2">
         <v>5</v>
       </c>
-      <c r="AD3" s="7">
+      <c r="AD3" s="2">
         <v>6</v>
       </c>
-      <c r="AE3" s="7">
+      <c r="AE3" s="2">
         <v>7</v>
       </c>
-      <c r="AF3" s="7">
+      <c r="AF3" s="2">
         <v>8</v>
       </c>
-      <c r="AG3" s="7">
+      <c r="AG3" s="2">
         <v>9</v>
       </c>
-      <c r="AH3" s="7">
+      <c r="AH3" s="2">
         <v>10</v>
       </c>
-      <c r="AI3" s="7">
+      <c r="AI3" s="2">
         <v>11</v>
       </c>
-      <c r="AJ3" s="8"/>
-      <c r="AK3" s="9"/>
+      <c r="AJ3" s="19"/>
+      <c r="AK3" s="24"/>
     </row>
     <row r="4" spans="1:37" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="N4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="O4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="14" t="s">
+      <c r="P4" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="Q4" s="14" t="s">
+      <c r="Q4" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="R4" s="14" t="s">
+      <c r="R4" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="S4" s="13" t="s">
+      <c r="S4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="T4" s="14" t="s">
+      <c r="T4" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="U4" s="14" t="s">
+      <c r="U4" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="V4" s="14" t="s">
+      <c r="V4" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="W4" s="14" t="s">
+      <c r="W4" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="X4" s="14" t="s">
+      <c r="X4" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="7"/>
-      <c r="AI4" s="7"/>
-      <c r="AJ4" s="15"/>
-      <c r="AK4" s="9"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="20"/>
+      <c r="AK4" s="24"/>
     </row>
     <row r="5" spans="1:37" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="35"/>
+      <c r="B5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="6" t="s">
+      <c r="H5" s="2"/>
+      <c r="I5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="O5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="P5" s="14" t="s">
+      <c r="P5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="Q5" s="14" t="s">
+      <c r="Q5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="R5" s="14" t="s">
+      <c r="R5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="S5" s="13"/>
-      <c r="T5" s="14" t="s">
+      <c r="S5" s="7"/>
+      <c r="T5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="U5" s="14" t="s">
+      <c r="U5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="V5" s="14" t="s">
+      <c r="V5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="W5" s="14" t="s">
+      <c r="W5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="X5" s="14" t="s">
+      <c r="X5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="15"/>
-      <c r="AK5" s="9"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="20"/>
+      <c r="AK5" s="24"/>
     </row>
     <row r="6" spans="1:37" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="14" t="s">
+      <c r="N6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="O6" s="14" t="s">
+      <c r="O6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="14" t="s">
+      <c r="P6" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="Q6" s="14" t="s">
+      <c r="Q6" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="R6" s="14" t="s">
+      <c r="R6" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="S6" s="13" t="s">
+      <c r="S6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="T6" s="14" t="s">
+      <c r="T6" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="U6" s="14" t="s">
+      <c r="U6" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="V6" s="14" t="s">
+      <c r="V6" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="W6" s="14" t="s">
+      <c r="W6" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="X6" s="14" t="s">
+      <c r="X6" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="7"/>
-      <c r="AJ6" s="15"/>
-      <c r="AK6" s="9"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="20"/>
+      <c r="AK6" s="24"/>
     </row>
     <row r="7" spans="1:37" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="35"/>
+      <c r="B7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7" t="s">
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="N7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="O7" s="14" t="s">
+      <c r="O7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="P7" s="14" t="s">
+      <c r="P7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="Q7" s="14" t="s">
+      <c r="Q7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="R7" s="14" t="s">
+      <c r="R7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="S7" s="13"/>
-      <c r="T7" s="14" t="s">
+      <c r="S7" s="7"/>
+      <c r="T7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="U7" s="14" t="s">
+      <c r="U7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="V7" s="14" t="s">
+      <c r="V7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="W7" s="14" t="s">
+      <c r="W7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="X7" s="14" t="s">
+      <c r="X7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="7"/>
-      <c r="AI7" s="7"/>
-      <c r="AJ7" s="15"/>
-      <c r="AK7" s="9"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="20"/>
+      <c r="AK7" s="24"/>
     </row>
     <row r="8" spans="1:37" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="J8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="L8" s="13" t="s">
+      <c r="L8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="M8" s="13" t="s">
+      <c r="M8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N8" s="13" t="s">
+      <c r="N8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="13" t="s">
+      <c r="O8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="P8" s="14" t="s">
+      <c r="P8" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="Q8" s="14" t="s">
+      <c r="Q8" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="R8" s="13" t="s">
+      <c r="R8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="S8" s="14" t="s">
+      <c r="S8" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="T8" s="13" t="s">
+      <c r="T8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U8" s="13" t="s">
+      <c r="U8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="V8" s="14" t="s">
+      <c r="V8" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="W8" s="13" t="s">
+      <c r="W8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="X8" s="13" t="s">
+      <c r="X8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="7"/>
-      <c r="AG8" s="7"/>
-      <c r="AH8" s="7"/>
-      <c r="AI8" s="7"/>
-      <c r="AJ8" s="15"/>
-      <c r="AK8" s="9"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="20"/>
+      <c r="AK8" s="24"/>
     </row>
     <row r="9" spans="1:37" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="35"/>
+      <c r="B9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="6" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="6" t="s">
+      <c r="G9" s="2"/>
+      <c r="H9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="6" t="s">
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="14" t="s">
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="Q9" s="14" t="s">
+      <c r="Q9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="R9" s="13"/>
-      <c r="S9" s="14" t="s">
+      <c r="R9" s="7"/>
+      <c r="S9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="14" t="s">
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="7"/>
-      <c r="AH9" s="7"/>
-      <c r="AI9" s="7"/>
-      <c r="AJ9" s="15"/>
-      <c r="AK9" s="9"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="20"/>
+      <c r="AK9" s="24"/>
     </row>
     <row r="10" spans="1:37" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="7"/>
-      <c r="AH10" s="7"/>
-      <c r="AI10" s="7"/>
-      <c r="AJ10" s="15"/>
-      <c r="AK10" s="9"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="20"/>
+      <c r="AK10" s="24"/>
     </row>
     <row r="11" spans="1:37" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="35"/>
+      <c r="B11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="18" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="J11" s="18" t="s">
+      <c r="J11" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="7"/>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
-      <c r="AG11" s="7"/>
-      <c r="AH11" s="7"/>
-      <c r="AI11" s="7"/>
-      <c r="AJ11" s="15"/>
-      <c r="AK11" s="9"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="20"/>
+      <c r="AK11" s="24"/>
     </row>
     <row r="12" spans="1:37" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19" t="s">
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="7"/>
-      <c r="AH12" s="7"/>
-      <c r="AI12" s="7"/>
-      <c r="AJ12" s="15"/>
-      <c r="AK12" s="9"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="20"/>
+      <c r="AK12" s="24"/>
     </row>
     <row r="13" spans="1:37" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="35"/>
+      <c r="B13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="20" t="s">
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="21" t="s">
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="O13" s="21" t="s">
+      <c r="O13" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="22" t="s">
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="7"/>
-      <c r="AF13" s="7"/>
-      <c r="AG13" s="7"/>
-      <c r="AH13" s="7"/>
-      <c r="AI13" s="7"/>
-      <c r="AJ13" s="15"/>
-      <c r="AK13" s="9"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="20"/>
+      <c r="AK13" s="24"/>
     </row>
     <row r="14" spans="1:37" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="23" t="s">
+      <c r="I14" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="13" t="s">
+      <c r="J14" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K14" s="13" t="s">
+      <c r="K14" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="L14" s="13" t="s">
+      <c r="L14" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="M14" s="13" t="s">
+      <c r="M14" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="N14" s="13" t="s">
+      <c r="N14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="O14" s="13" t="s">
+      <c r="O14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="P14" s="14" t="s">
+      <c r="P14" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="Q14" s="14" t="s">
+      <c r="Q14" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="R14" s="13" t="s">
+      <c r="R14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="S14" s="13" t="s">
+      <c r="S14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="T14" s="14" t="s">
+      <c r="T14" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="U14" s="13" t="s">
+      <c r="U14" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="V14" s="13" t="s">
+      <c r="V14" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="W14" s="13" t="s">
+      <c r="W14" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="X14" s="13" t="s">
+      <c r="X14" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="7"/>
-      <c r="AD14" s="7"/>
-      <c r="AE14" s="7"/>
-      <c r="AF14" s="7"/>
-      <c r="AG14" s="7"/>
-      <c r="AH14" s="7"/>
-      <c r="AI14" s="7"/>
-      <c r="AJ14" s="15"/>
-      <c r="AK14" s="9"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="20"/>
+      <c r="AK14" s="24"/>
     </row>
     <row r="15" spans="1:37" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="35"/>
+      <c r="B15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="6" t="s">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="20" t="s">
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="14" t="s">
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="Q15" s="14" t="s">
+      <c r="Q15" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="14" t="s">
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
-      <c r="AC15" s="7"/>
-      <c r="AD15" s="7"/>
-      <c r="AE15" s="7"/>
-      <c r="AF15" s="7"/>
-      <c r="AG15" s="7"/>
-      <c r="AH15" s="7"/>
-      <c r="AI15" s="7"/>
-      <c r="AJ15" s="15"/>
-      <c r="AK15" s="9"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="20"/>
+      <c r="AK15" s="24"/>
     </row>
     <row r="16" spans="1:37" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="23" t="s">
+      <c r="I16" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="13" t="s">
+      <c r="J16" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K16" s="13" t="s">
+      <c r="K16" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="L16" s="13" t="s">
+      <c r="L16" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="M16" s="13" t="s">
+      <c r="M16" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="7"/>
-      <c r="AD16" s="7"/>
-      <c r="AE16" s="7"/>
-      <c r="AF16" s="7"/>
-      <c r="AG16" s="7"/>
-      <c r="AH16" s="7"/>
-      <c r="AI16" s="7"/>
-      <c r="AJ16" s="15"/>
-      <c r="AK16" s="9"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="20"/>
+      <c r="AK16" s="24"/>
     </row>
     <row r="17" spans="1:37" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11" t="s">
+      <c r="A17" s="35"/>
+      <c r="B17" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="6" t="s">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="6" t="s">
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="7"/>
-      <c r="AC17" s="7"/>
-      <c r="AD17" s="7"/>
-      <c r="AE17" s="7"/>
-      <c r="AF17" s="7"/>
-      <c r="AG17" s="7"/>
-      <c r="AH17" s="7"/>
-      <c r="AI17" s="7"/>
-      <c r="AJ17" s="15"/>
-      <c r="AK17" s="9"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="20"/>
+      <c r="AK17" s="24"/>
     </row>
     <row r="18" spans="1:37" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="13" t="s">
+      <c r="I18" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="J18" s="13" t="s">
+      <c r="J18" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="K18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="L18" s="13" t="s">
+      <c r="L18" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="M18" s="13" t="s">
+      <c r="M18" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="N18" s="24" t="s">
+      <c r="N18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="O18" s="25" t="s">
+      <c r="O18" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="P18" s="13" t="s">
+      <c r="P18" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="Q18" s="13" t="s">
+      <c r="Q18" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="R18" s="13" t="s">
+      <c r="R18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="S18" s="13" t="s">
+      <c r="S18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="T18" s="13" t="s">
+      <c r="T18" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="U18" s="13" t="s">
+      <c r="U18" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="V18" s="14" t="s">
+      <c r="V18" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="W18" s="13" t="s">
+      <c r="W18" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="X18" s="13" t="s">
+      <c r="X18" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="7"/>
-      <c r="AB18" s="7"/>
-      <c r="AC18" s="7"/>
-      <c r="AD18" s="7"/>
-      <c r="AE18" s="7"/>
-      <c r="AF18" s="7"/>
-      <c r="AG18" s="7"/>
-      <c r="AH18" s="7"/>
-      <c r="AI18" s="7"/>
-      <c r="AJ18" s="15"/>
-      <c r="AK18" s="9"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="20"/>
+      <c r="AK18" s="24"/>
     </row>
     <row r="19" spans="1:37" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11" t="s">
+      <c r="A19" s="35"/>
+      <c r="B19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="6" t="s">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="6" t="s">
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="24" t="s">
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="O19" s="25" t="s">
+      <c r="O19" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="14" t="s">
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="7"/>
-      <c r="AC19" s="7"/>
-      <c r="AD19" s="7"/>
-      <c r="AE19" s="7"/>
-      <c r="AF19" s="7"/>
-      <c r="AG19" s="7"/>
-      <c r="AH19" s="7"/>
-      <c r="AI19" s="7"/>
-      <c r="AJ19" s="15"/>
-      <c r="AK19" s="9"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="20"/>
+      <c r="AK19" s="24"/>
     </row>
     <row r="20" spans="1:37" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="26" t="s">
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="27"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="26" t="s">
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="31"/>
+      <c r="Y20" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="Z20" s="27"/>
-      <c r="AA20" s="27"/>
-      <c r="AB20" s="27"/>
-      <c r="AC20" s="27"/>
-      <c r="AD20" s="27"/>
-      <c r="AE20" s="27"/>
-      <c r="AF20" s="27"/>
-      <c r="AG20" s="27"/>
-      <c r="AH20" s="27"/>
-      <c r="AI20" s="28"/>
-      <c r="AJ20" s="15"/>
-      <c r="AK20" s="9"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="30"/>
+      <c r="AB20" s="30"/>
+      <c r="AC20" s="30"/>
+      <c r="AD20" s="30"/>
+      <c r="AE20" s="30"/>
+      <c r="AF20" s="30"/>
+      <c r="AG20" s="30"/>
+      <c r="AH20" s="30"/>
+      <c r="AI20" s="31"/>
+      <c r="AJ20" s="20"/>
+      <c r="AK20" s="24"/>
     </row>
     <row r="21" spans="1:37" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11" t="s">
+      <c r="A21" s="35"/>
+      <c r="B21" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="30"/>
-      <c r="V21" s="30"/>
-      <c r="W21" s="30"/>
-      <c r="X21" s="31"/>
-      <c r="Y21" s="29"/>
-      <c r="Z21" s="30"/>
-      <c r="AA21" s="30"/>
-      <c r="AB21" s="30"/>
-      <c r="AC21" s="30"/>
-      <c r="AD21" s="30"/>
-      <c r="AE21" s="30"/>
-      <c r="AF21" s="30"/>
-      <c r="AG21" s="30"/>
-      <c r="AH21" s="30"/>
-      <c r="AI21" s="31"/>
-      <c r="AJ21" s="15"/>
-      <c r="AK21" s="9"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="33"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="33"/>
+      <c r="X21" s="34"/>
+      <c r="Y21" s="32"/>
+      <c r="Z21" s="33"/>
+      <c r="AA21" s="33"/>
+      <c r="AB21" s="33"/>
+      <c r="AC21" s="33"/>
+      <c r="AD21" s="33"/>
+      <c r="AE21" s="33"/>
+      <c r="AF21" s="33"/>
+      <c r="AG21" s="33"/>
+      <c r="AH21" s="33"/>
+      <c r="AI21" s="34"/>
+      <c r="AJ21" s="20"/>
+      <c r="AK21" s="24"/>
     </row>
     <row r="22" spans="1:37" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="13" t="s">
+      <c r="H22" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="I22" s="13" t="s">
+      <c r="I22" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="J22" s="13" t="s">
+      <c r="J22" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K22" s="12" t="s">
+      <c r="K22" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="L22" s="13" t="s">
+      <c r="L22" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="M22" s="13" t="s">
+      <c r="M22" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="N22" s="13" t="s">
+      <c r="N22" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="O22" s="13" t="s">
+      <c r="O22" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="P22" s="13" t="s">
+      <c r="P22" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="Q22" s="13" t="s">
+      <c r="Q22" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="R22" s="14" t="s">
+      <c r="R22" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="S22" s="13" t="s">
+      <c r="S22" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="T22" s="13" t="s">
+      <c r="T22" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="U22" s="13" t="s">
+      <c r="U22" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="V22" s="22" t="s">
+      <c r="V22" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="W22" s="13" t="s">
+      <c r="W22" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="X22" s="13" t="s">
+      <c r="X22" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="7"/>
-      <c r="AA22" s="7"/>
-      <c r="AB22" s="7"/>
-      <c r="AC22" s="7"/>
-      <c r="AD22" s="7"/>
-      <c r="AE22" s="7"/>
-      <c r="AF22" s="7"/>
-      <c r="AG22" s="7"/>
-      <c r="AH22" s="7"/>
-      <c r="AI22" s="7"/>
-      <c r="AJ22" s="15"/>
-      <c r="AK22" s="9"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="20"/>
+      <c r="AK22" s="24"/>
     </row>
     <row r="23" spans="1:37" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11" t="s">
+      <c r="A23" s="35"/>
+      <c r="B23" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="6" t="s">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="6" t="s">
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="14" t="s">
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="22" t="s">
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="7"/>
-      <c r="AC23" s="7"/>
-      <c r="AD23" s="7"/>
-      <c r="AE23" s="7"/>
-      <c r="AF23" s="7"/>
-      <c r="AG23" s="7"/>
-      <c r="AH23" s="7"/>
-      <c r="AI23" s="7"/>
-      <c r="AJ23" s="15"/>
-      <c r="AK23" s="9"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="20"/>
+      <c r="AK23" s="24"/>
     </row>
     <row r="24" spans="1:37" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19" t="s">
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="19"/>
-      <c r="W24" s="19"/>
-      <c r="X24" s="19"/>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="7"/>
-      <c r="AA24" s="7"/>
-      <c r="AB24" s="7"/>
-      <c r="AC24" s="7"/>
-      <c r="AD24" s="7"/>
-      <c r="AE24" s="7"/>
-      <c r="AF24" s="7"/>
-      <c r="AG24" s="7"/>
-      <c r="AH24" s="7"/>
-      <c r="AI24" s="7"/>
-      <c r="AJ24" s="15"/>
-      <c r="AK24" s="9"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="22"/>
+      <c r="X24" s="22"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="20"/>
+      <c r="AK24" s="24"/>
     </row>
     <row r="25" spans="1:37" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11" t="s">
+      <c r="A25" s="35"/>
+      <c r="B25" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="32" t="s">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="14" t="s">
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="7"/>
-      <c r="AC25" s="7"/>
-      <c r="AD25" s="7"/>
-      <c r="AE25" s="7"/>
-      <c r="AF25" s="7"/>
-      <c r="AG25" s="7"/>
-      <c r="AH25" s="7"/>
-      <c r="AI25" s="7"/>
-      <c r="AJ25" s="33"/>
-      <c r="AK25" s="9"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="21"/>
+      <c r="AK25" s="24"/>
     </row>
     <row r="26" spans="1:37" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
+      <c r="A26" s="26"/>
     </row>
     <row r="27" spans="1:37" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
+      <c r="A27" s="26"/>
     </row>
     <row r="28" spans="1:37" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
+      <c r="A28" s="26"/>
     </row>
     <row r="29" spans="1:37" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
+      <c r="A29" s="26"/>
     </row>
     <row r="30" spans="1:37" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
+      <c r="A30" s="26"/>
     </row>
     <row r="31" spans="1:37" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
+      <c r="A31" s="26"/>
     </row>
     <row r="32" spans="1:37" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="34"/>
+      <c r="A32" s="26"/>
     </row>
     <row r="33" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
+      <c r="A33" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="AJ3:AJ25"/>
-    <mergeCell ref="C24:M24"/>
-    <mergeCell ref="C10:M10"/>
-    <mergeCell ref="C12:M12"/>
-    <mergeCell ref="N24:X24"/>
-    <mergeCell ref="N12:X12"/>
+    <mergeCell ref="C2:M2"/>
+    <mergeCell ref="N2:X2"/>
+    <mergeCell ref="Y2:AI2"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
     <mergeCell ref="AK3:AK25"/>
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="A28:A29"/>
@@ -2770,16 +2768,12 @@
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C2:M2"/>
-    <mergeCell ref="N2:X2"/>
-    <mergeCell ref="Y2:AI2"/>
+    <mergeCell ref="AJ3:AJ25"/>
+    <mergeCell ref="C24:M24"/>
+    <mergeCell ref="C10:M10"/>
+    <mergeCell ref="C12:M12"/>
+    <mergeCell ref="N24:X24"/>
+    <mergeCell ref="N12:X12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2788,10 +2782,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF30E575-7490-45A2-8B71-3A3E9936988F}">
-  <dimension ref="A4:W16"/>
+  <dimension ref="A4:W28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2875,37 +2869,37 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="37">
+      <c r="A7">
         <v>7</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7">
         <v>8</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7">
         <v>9</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7">
         <v>10</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7">
         <v>11</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7">
         <v>11</v>
       </c>
-      <c r="G7" s="37">
+      <c r="G7">
         <v>13</v>
       </c>
-      <c r="H7" s="37">
+      <c r="H7">
         <v>13</v>
       </c>
-      <c r="I7" s="37">
+      <c r="I7">
         <v>14</v>
       </c>
-      <c r="J7" s="37">
+      <c r="J7">
         <v>15</v>
       </c>
-      <c r="K7" s="37">
+      <c r="K7">
         <v>16</v>
       </c>
       <c r="M7">
@@ -2954,37 +2948,37 @@
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="37">
+      <c r="A8">
         <v>30</v>
       </c>
-      <c r="B8" s="37">
+      <c r="B8">
         <v>20</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8">
         <v>20</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8">
         <v>10</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8">
         <v>50</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8" s="37">
+      <c r="H8">
         <v>50</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8">
         <v>40</v>
       </c>
-      <c r="J8" s="37">
+      <c r="J8">
         <v>40</v>
       </c>
-      <c r="K8" s="37">
+      <c r="K8">
         <v>30</v>
       </c>
     </row>
@@ -3034,7 +3028,7 @@
         <v>17</v>
       </c>
       <c r="M10">
-        <f t="shared" ref="M8:M10" si="1">A10*$M$6+A11*$N$6</f>
+        <f t="shared" ref="M10" si="1">A10*$M$6+A11*$N$6</f>
         <v>29700</v>
       </c>
       <c r="N10">
@@ -3181,6 +3175,164 @@
       </c>
       <c r="K16">
         <v>62100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>27000</v>
+      </c>
+      <c r="C18">
+        <v>29700</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>30000</v>
+      </c>
+      <c r="C19">
+        <v>32700</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>33600</v>
+      </c>
+      <c r="C20">
+        <v>36300</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>36600</v>
+      </c>
+      <c r="C21">
+        <v>39300</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>39600</v>
+      </c>
+      <c r="C22">
+        <v>42300</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>42600</v>
+      </c>
+      <c r="C23">
+        <v>45900</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>46800</v>
+      </c>
+      <c r="C24">
+        <v>49500</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>49800</v>
+      </c>
+      <c r="C25">
+        <v>52500</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>52800</v>
+      </c>
+      <c r="C26">
+        <v>55500</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>56400</v>
+      </c>
+      <c r="C27">
+        <v>59100</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>59400</v>
+      </c>
+      <c r="C28">
+        <v>62100</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <f>C28/3600</f>
+        <v>17.25</v>
       </c>
     </row>
   </sheetData>
@@ -3200,10 +3352,10 @@
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="36">
+      <c r="C1" s="18">
         <v>3</v>
       </c>
       <c r="F1">
@@ -3211,10 +3363,10 @@
       </c>
     </row>
     <row r="2" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="36">
+      <c r="C2" s="18">
         <v>2</v>
       </c>
       <c r="F2">
@@ -3222,10 +3374,10 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="18">
         <v>1</v>
       </c>
       <c r="F3">

--- a/Scheduler_cal.xlsx
+++ b/Scheduler_cal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\buidu_8h8ybgq\OneDrive\Documents\GitHub\PRJ301_BL5_Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08D772C-B587-4505-9F29-2ED62D49B935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9B25D3-7B46-4D4F-A5D8-AF7D41E1C2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="25065" windowHeight="14550" activeTab="1" xr2:uid="{16EA6DC9-32AF-492B-B3F1-7B9F76CE6A5F}"/>
+    <workbookView xWindow="3075" yWindow="810" windowWidth="25065" windowHeight="14550" xr2:uid="{16EA6DC9-32AF-492B-B3F1-7B9F76CE6A5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -177,18 +177,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>LUN</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TO R303</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TO R201</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>NV001</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -334,10 +322,6 @@
   </si>
   <si>
     <t>CHN NV012</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NV R103</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -445,6 +429,22 @@
   </si>
   <si>
     <t>17.15</t>
+  </si>
+  <si>
+    <t>TO R303 12A1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LUN 12A1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TO R201 11B3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NV R103 11B3</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -742,34 +742,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -790,8 +778,20 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1115,62 +1115,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA5F19A-2AF3-48AC-89F4-F5779B8B8B77}">
   <dimension ref="A1:AK33"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:M4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.25" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35" style="17" customWidth="1"/>
-    <col min="2" max="2" width="37.5" style="17" customWidth="1"/>
-    <col min="3" max="37" width="13" style="4" customWidth="1"/>
-    <col min="38" max="16384" width="8.875" style="4"/>
+    <col min="1" max="2" width="14.25" style="17"/>
+    <col min="3" max="16384" width="14.25" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="27">
+      <c r="A1" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="19">
         <v>1</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="28">
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="20">
         <v>2</v>
       </c>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28">
-        <v>3</v>
-      </c>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20">
+        <v>3</v>
+      </c>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20"/>
       <c r="AJ1" s="3">
         <v>4</v>
       </c>
@@ -1179,47 +1177,47 @@
       </c>
     </row>
     <row r="2" spans="1:37" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="27" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="28" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28" t="s">
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="28"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
       <c r="AJ2" s="3" t="s">
         <v>17</v>
       </c>
@@ -1227,9 +1225,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
+    <row r="3" spans="1:37" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="1">
         <v>1</v>
       </c>
@@ -1329,11 +1327,11 @@
       <c r="AI3" s="2">
         <v>11</v>
       </c>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="24"/>
-    </row>
-    <row r="4" spans="1:37" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="AJ3" s="31"/>
+      <c r="AK3" s="23"/>
+    </row>
+    <row r="4" spans="1:37" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1379,31 +1377,31 @@
         <v>21</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="S4" s="7" t="s">
         <v>24</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="U4" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="W4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="X4" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="V4" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="W4" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="X4" s="8" t="s">
-        <v>60</v>
       </c>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
@@ -1416,13 +1414,13 @@
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
-      <c r="AJ4" s="20"/>
-      <c r="AK4" s="24"/>
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="23"/>
     </row>
     <row r="5" spans="1:37" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>31</v>
@@ -1497,11 +1495,11 @@
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
-      <c r="AJ5" s="20"/>
-      <c r="AK5" s="24"/>
+      <c r="AJ5" s="32"/>
+      <c r="AK5" s="23"/>
     </row>
     <row r="6" spans="1:37" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="22" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1547,31 +1545,31 @@
         <v>21</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="S6" s="7" t="s">
         <v>24</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="U6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="V6" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="W6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="X6" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="V6" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="W6" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="X6" s="8" t="s">
-        <v>60</v>
       </c>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
@@ -1584,13 +1582,13 @@
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
-      <c r="AJ6" s="20"/>
-      <c r="AK6" s="24"/>
+      <c r="AJ6" s="32"/>
+      <c r="AK6" s="23"/>
     </row>
     <row r="7" spans="1:37" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>31</v>
@@ -1608,19 +1606,19 @@
         <v>31</v>
       </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="1" t="s">
         <v>31</v>
       </c>
       <c r="N7" s="8" t="s">
@@ -1665,11 +1663,11 @@
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
-      <c r="AJ7" s="20"/>
-      <c r="AK7" s="24"/>
+      <c r="AJ7" s="32"/>
+      <c r="AK7" s="23"/>
     </row>
     <row r="8" spans="1:37" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="22" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1715,16 +1713,16 @@
         <v>20</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R8" s="7" t="s">
         <v>23</v>
       </c>
       <c r="S8" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="T8" s="7" t="s">
         <v>26</v>
@@ -1733,7 +1731,7 @@
         <v>27</v>
       </c>
       <c r="V8" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="W8" s="7" t="s">
         <v>29</v>
@@ -1752,52 +1750,52 @@
       <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
-      <c r="AJ8" s="20"/>
-      <c r="AK8" s="24"/>
+      <c r="AJ8" s="32"/>
+      <c r="AK8" s="23"/>
     </row>
     <row r="9" spans="1:37" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="1" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="1" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="1" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
       <c r="P9" s="8" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="R9" s="7"/>
+        <v>98</v>
+      </c>
+      <c r="R9" s="2"/>
       <c r="S9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
       <c r="V9" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
@@ -1809,29 +1807,29 @@
       <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
-      <c r="AJ9" s="20"/>
-      <c r="AK9" s="24"/>
+      <c r="AJ9" s="32"/>
+      <c r="AK9" s="23"/>
     </row>
     <row r="10" spans="1:37" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
+      <c r="C10" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -1854,13 +1852,13 @@
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
-      <c r="AJ10" s="20"/>
-      <c r="AK10" s="24"/>
+      <c r="AJ10" s="32"/>
+      <c r="AK10" s="23"/>
     </row>
     <row r="11" spans="1:37" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1869,10 +1867,10 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="9" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -1899,42 +1897,42 @@
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
-      <c r="AJ11" s="20"/>
-      <c r="AK11" s="24"/>
+      <c r="AJ11" s="32"/>
+      <c r="AK11" s="23"/>
     </row>
     <row r="12" spans="1:37" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="22" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="22"/>
-      <c r="X12" s="22"/>
+      <c r="C12" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="34"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
@@ -1946,19 +1944,19 @@
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
-      <c r="AJ12" s="20"/>
-      <c r="AK12" s="24"/>
+      <c r="AJ12" s="32"/>
+      <c r="AK12" s="23"/>
     </row>
     <row r="13" spans="1:37" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -1967,15 +1965,15 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="O13" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
@@ -1984,7 +1982,7 @@
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
       <c r="V13" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
@@ -1999,11 +1997,11 @@
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
-      <c r="AJ13" s="20"/>
-      <c r="AK13" s="24"/>
+      <c r="AJ13" s="32"/>
+      <c r="AK13" s="23"/>
     </row>
     <row r="14" spans="1:37" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -2016,31 +2014,31 @@
         <v>21</v>
       </c>
       <c r="E14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="I14" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M14" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="N14" s="7" t="s">
         <v>19</v>
@@ -2049,31 +2047,31 @@
         <v>21</v>
       </c>
       <c r="P14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="S14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="Q14" s="8" t="s">
+      <c r="T14" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="U14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="R14" s="7" t="s">
+      <c r="V14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="S14" s="7" t="s">
+      <c r="W14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="T14" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="U14" s="7" t="s">
+      <c r="X14" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="V14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="W14" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="X14" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
@@ -2086,26 +2084,26 @@
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
-      <c r="AJ14" s="20"/>
-      <c r="AK14" s="24"/>
+      <c r="AJ14" s="32"/>
+      <c r="AK14" s="23"/>
     </row>
     <row r="15" spans="1:37" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -2114,15 +2112,15 @@
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
       <c r="T15" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
@@ -2139,12 +2137,12 @@
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
-      <c r="AJ15" s="20"/>
-      <c r="AK15" s="24"/>
+      <c r="AJ15" s="32"/>
+      <c r="AK15" s="23"/>
     </row>
     <row r="16" spans="1:37" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
-        <v>77</v>
+      <c r="A16" s="22" t="s">
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>13</v>
@@ -2159,28 +2157,28 @@
         <v>25</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I16" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M16" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2204,24 +2202,24 @@
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
-      <c r="AJ16" s="20"/>
-      <c r="AK16" s="24"/>
+      <c r="AJ16" s="32"/>
+      <c r="AK16" s="23"/>
     </row>
     <row r="17" spans="1:37" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -2249,11 +2247,11 @@
       <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
-      <c r="AJ17" s="20"/>
-      <c r="AK17" s="24"/>
+      <c r="AJ17" s="32"/>
+      <c r="AK17" s="23"/>
     </row>
     <row r="18" spans="1:37" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="22" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -2266,10 +2264,10 @@
         <v>20</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>23</v>
@@ -2278,19 +2276,19 @@
         <v>24</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N18" s="14" t="s">
         <v>19</v>
@@ -2299,10 +2297,10 @@
         <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R18" s="7" t="s">
         <v>23</v>
@@ -2311,19 +2309,19 @@
         <v>24</v>
       </c>
       <c r="T18" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="U18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="V18" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="W18" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="X18" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="V18" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="W18" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="X18" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
@@ -2336,40 +2334,40 @@
       <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
-      <c r="AJ18" s="20"/>
-      <c r="AK18" s="24"/>
+      <c r="AJ18" s="32"/>
+      <c r="AK18" s="23"/>
     </row>
     <row r="19" spans="1:37" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O19" s="15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
@@ -2378,7 +2376,7 @@
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
       <c r="V19" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
@@ -2393,101 +2391,101 @@
       <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
-      <c r="AJ19" s="20"/>
-      <c r="AK19" s="24"/>
+      <c r="AJ19" s="32"/>
+      <c r="AK19" s="23"/>
     </row>
     <row r="20" spans="1:37" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
-        <v>68</v>
+      <c r="A20" s="22" t="s">
+        <v>65</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="30"/>
-      <c r="V20" s="30"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="31"/>
-      <c r="Y20" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z20" s="30"/>
-      <c r="AA20" s="30"/>
-      <c r="AB20" s="30"/>
-      <c r="AC20" s="30"/>
-      <c r="AD20" s="30"/>
-      <c r="AE20" s="30"/>
-      <c r="AF20" s="30"/>
-      <c r="AG20" s="30"/>
-      <c r="AH20" s="30"/>
-      <c r="AI20" s="31"/>
-      <c r="AJ20" s="20"/>
-      <c r="AK20" s="24"/>
+      <c r="C20" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="26"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z20" s="26"/>
+      <c r="AA20" s="26"/>
+      <c r="AB20" s="26"/>
+      <c r="AC20" s="26"/>
+      <c r="AD20" s="26"/>
+      <c r="AE20" s="26"/>
+      <c r="AF20" s="26"/>
+      <c r="AG20" s="26"/>
+      <c r="AH20" s="26"/>
+      <c r="AI20" s="27"/>
+      <c r="AJ20" s="32"/>
+      <c r="AK20" s="23"/>
     </row>
     <row r="21" spans="1:37" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="33"/>
-      <c r="W21" s="33"/>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="32"/>
-      <c r="Z21" s="33"/>
-      <c r="AA21" s="33"/>
-      <c r="AB21" s="33"/>
-      <c r="AC21" s="33"/>
-      <c r="AD21" s="33"/>
-      <c r="AE21" s="33"/>
-      <c r="AF21" s="33"/>
-      <c r="AG21" s="33"/>
-      <c r="AH21" s="33"/>
-      <c r="AI21" s="34"/>
-      <c r="AJ21" s="20"/>
-      <c r="AK21" s="24"/>
+        <v>42</v>
+      </c>
+      <c r="C21" s="28"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="29"/>
+      <c r="AA21" s="29"/>
+      <c r="AB21" s="29"/>
+      <c r="AC21" s="29"/>
+      <c r="AD21" s="29"/>
+      <c r="AE21" s="29"/>
+      <c r="AF21" s="29"/>
+      <c r="AG21" s="29"/>
+      <c r="AH21" s="29"/>
+      <c r="AI21" s="30"/>
+      <c r="AJ21" s="32"/>
+      <c r="AK21" s="23"/>
     </row>
     <row r="22" spans="1:37" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="22" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -2500,7 +2498,7 @@
         <v>21</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>22</v>
@@ -2509,22 +2507,22 @@
         <v>23</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K22" s="6" t="s">
         <v>28</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N22" s="7" t="s">
         <v>19</v>
@@ -2533,31 +2531,31 @@
         <v>21</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R22" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="S22" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="Q22" s="7" t="s">
+      <c r="T22" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="U22" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="R22" s="8" t="s">
+      <c r="V22" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="S22" s="7" t="s">
+      <c r="W22" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="T22" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="U22" s="7" t="s">
+      <c r="X22" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="V22" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="W22" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="X22" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
@@ -2570,28 +2568,28 @@
       <c r="AG22" s="2"/>
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
-      <c r="AJ22" s="20"/>
-      <c r="AK22" s="24"/>
+      <c r="AJ22" s="32"/>
+      <c r="AK22" s="23"/>
     </row>
     <row r="23" spans="1:37" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -2600,13 +2598,13 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" s="12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
@@ -2621,42 +2619,42 @@
       <c r="AG23" s="2"/>
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
-      <c r="AJ23" s="20"/>
-      <c r="AK23" s="24"/>
+      <c r="AJ23" s="32"/>
+      <c r="AK23" s="23"/>
     </row>
     <row r="24" spans="1:37" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="22" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="22"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="22"/>
-      <c r="W24" s="22"/>
-      <c r="X24" s="22"/>
+      <c r="C24" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="34"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="34"/>
+      <c r="W24" s="34"/>
+      <c r="X24" s="34"/>
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
@@ -2668,13 +2666,13 @@
       <c r="AG24" s="2"/>
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
-      <c r="AJ24" s="20"/>
-      <c r="AK24" s="24"/>
+      <c r="AJ24" s="32"/>
+      <c r="AK24" s="23"/>
     </row>
     <row r="25" spans="1:37" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -2686,12 +2684,12 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
@@ -2713,45 +2711,41 @@
       <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
-      <c r="AJ25" s="21"/>
-      <c r="AK25" s="24"/>
+      <c r="AJ25" s="33"/>
+      <c r="AK25" s="23"/>
     </row>
     <row r="26" spans="1:37" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
+      <c r="A26" s="21"/>
     </row>
     <row r="27" spans="1:37" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
+      <c r="A27" s="21"/>
     </row>
     <row r="28" spans="1:37" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
+      <c r="A28" s="21"/>
     </row>
     <row r="29" spans="1:37" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
+      <c r="A29" s="21"/>
     </row>
     <row r="30" spans="1:37" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
+      <c r="A30" s="21"/>
     </row>
     <row r="31" spans="1:37" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
+      <c r="A31" s="21"/>
     </row>
     <row r="32" spans="1:37" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="26"/>
+      <c r="A32" s="21"/>
     </row>
     <row r="33" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
+      <c r="A33" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C2:M2"/>
-    <mergeCell ref="N2:X2"/>
-    <mergeCell ref="Y2:AI2"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="AJ3:AJ25"/>
+    <mergeCell ref="C24:M24"/>
+    <mergeCell ref="C10:M10"/>
+    <mergeCell ref="C12:M12"/>
+    <mergeCell ref="N24:X24"/>
+    <mergeCell ref="N12:X12"/>
     <mergeCell ref="AK3:AK25"/>
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="A28:A29"/>
@@ -2768,12 +2762,16 @@
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
-    <mergeCell ref="AJ3:AJ25"/>
-    <mergeCell ref="C24:M24"/>
-    <mergeCell ref="C10:M10"/>
-    <mergeCell ref="C12:M12"/>
-    <mergeCell ref="N24:X24"/>
-    <mergeCell ref="N12:X12"/>
+    <mergeCell ref="C2:M2"/>
+    <mergeCell ref="N2:X2"/>
+    <mergeCell ref="Y2:AI2"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2784,7 +2782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF30E575-7490-45A2-8B71-3A3E9936988F}">
   <dimension ref="A4:W28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
@@ -2792,72 +2790,72 @@
   <sheetData>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" t="s">
         <v>80</v>
       </c>
-      <c r="B4" t="s">
+      <c r="F4" t="s">
         <v>81</v>
       </c>
-      <c r="C4" t="s">
+      <c r="G4" t="s">
         <v>82</v>
       </c>
-      <c r="D4" t="s">
+      <c r="H4" t="s">
         <v>83</v>
       </c>
-      <c r="E4" t="s">
+      <c r="I4" t="s">
         <v>84</v>
       </c>
-      <c r="F4" t="s">
+      <c r="J4" t="s">
         <v>85</v>
       </c>
-      <c r="G4" t="s">
+      <c r="K4" t="s">
         <v>86</v>
-      </c>
-      <c r="H4" t="s">
-        <v>87</v>
-      </c>
-      <c r="I4" t="s">
-        <v>88</v>
-      </c>
-      <c r="J4" t="s">
-        <v>89</v>
-      </c>
-      <c r="K4" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" t="s">
         <v>91</v>
       </c>
-      <c r="B5" t="s">
+      <c r="F5" t="s">
         <v>92</v>
       </c>
-      <c r="C5" t="s">
+      <c r="G5" t="s">
         <v>93</v>
       </c>
-      <c r="D5" t="s">
+      <c r="H5" t="s">
         <v>94</v>
       </c>
-      <c r="E5" t="s">
+      <c r="I5" t="s">
         <v>95</v>
       </c>
-      <c r="F5" t="s">
+      <c r="J5" t="s">
         <v>96</v>
       </c>
-      <c r="G5" t="s">
+      <c r="K5" t="s">
         <v>97</v>
-      </c>
-      <c r="H5" t="s">
-        <v>98</v>
-      </c>
-      <c r="I5" t="s">
-        <v>99</v>
-      </c>
-      <c r="J5" t="s">
-        <v>100</v>
-      </c>
-      <c r="K5" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -3375,7 +3373,7 @@
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C3" s="18">
         <v>1</v>
